--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="380">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -778,6 +778,9 @@
     <t>['15']</t>
   </si>
   <si>
+    <t>['38']</t>
+  </si>
+  <si>
     <t>['17']</t>
   </si>
   <si>
@@ -1149,6 +1152,9 @@
   <si>
     <t>['57']</t>
   </si>
+  <si>
+    <t>['85', '100']</t>
+  </si>
 </sst>
 </file>
 
@@ -1509,7 +1515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP241"/>
+  <dimension ref="A1:BP242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1974,7 +1980,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q3">
         <v>2.2</v>
@@ -2180,7 +2186,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2592,7 +2598,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2798,7 +2804,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -3004,7 +3010,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -3416,7 +3422,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3622,7 +3628,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3828,7 +3834,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4446,7 +4452,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4730,10 +4736,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4858,7 +4864,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -5064,7 +5070,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -6300,7 +6306,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6506,7 +6512,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6587,7 +6593,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ25">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR25">
         <v>1.67</v>
@@ -7536,7 +7542,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q30">
         <v>2.25</v>
@@ -7742,7 +7748,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7820,7 +7826,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
         <v>2.27</v>
@@ -7948,7 +7954,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q32">
         <v>3.05</v>
@@ -8154,7 +8160,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q33">
         <v>2.26</v>
@@ -8360,7 +8366,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q34">
         <v>3.46</v>
@@ -8772,7 +8778,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q36">
         <v>2.72</v>
@@ -9184,7 +9190,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -9390,7 +9396,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9468,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>1.33</v>
@@ -9883,7 +9889,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ41">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR41">
         <v>1.14</v>
@@ -10626,7 +10632,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q45">
         <v>3.3</v>
@@ -10832,7 +10838,7 @@
         <v>94</v>
       </c>
       <c r="P46" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -11038,7 +11044,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q47">
         <v>3.11</v>
@@ -11450,7 +11456,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -11734,7 +11740,7 @@
         <v>1.67</v>
       </c>
       <c r="AP50">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
         <v>0.87</v>
@@ -11862,7 +11868,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q51">
         <v>3.89</v>
@@ -12480,7 +12486,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12686,7 +12692,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q55">
         <v>2.61</v>
@@ -13098,7 +13104,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q57">
         <v>2.39</v>
@@ -13510,7 +13516,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q59">
         <v>2.84</v>
@@ -13716,7 +13722,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13922,7 +13928,7 @@
         <v>103</v>
       </c>
       <c r="P61" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q61">
         <v>2.32</v>
@@ -14003,7 +14009,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ61">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR61">
         <v>2.26</v>
@@ -14128,7 +14134,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14334,7 +14340,7 @@
         <v>103</v>
       </c>
       <c r="P63" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q63">
         <v>2.57</v>
@@ -14540,7 +14546,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14952,7 +14958,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q66">
         <v>1.85</v>
@@ -15364,7 +15370,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -15776,7 +15782,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -16060,7 +16066,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>0.4</v>
@@ -16188,7 +16194,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -16806,7 +16812,7 @@
         <v>128</v>
       </c>
       <c r="P75" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -17012,7 +17018,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q76">
         <v>2.38</v>
@@ -17218,7 +17224,7 @@
         <v>103</v>
       </c>
       <c r="P77" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q77">
         <v>3.66</v>
@@ -17299,7 +17305,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ77">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR77">
         <v>1.41</v>
@@ -17424,7 +17430,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q78">
         <v>2.4</v>
@@ -17630,7 +17636,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17836,7 +17842,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -17914,7 +17920,7 @@
         <v>0</v>
       </c>
       <c r="AP80">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80">
         <v>0.93</v>
@@ -18042,7 +18048,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q81">
         <v>2.55</v>
@@ -18454,7 +18460,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q83">
         <v>2.31</v>
@@ -18660,7 +18666,7 @@
         <v>152</v>
       </c>
       <c r="P84" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q84">
         <v>2.7</v>
@@ -18866,7 +18872,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q85">
         <v>2.27</v>
@@ -19278,7 +19284,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19690,7 +19696,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -20102,7 +20108,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20183,7 +20189,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ91">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR91">
         <v>1.3</v>
@@ -20308,7 +20314,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q92">
         <v>2.6</v>
@@ -20514,7 +20520,7 @@
         <v>160</v>
       </c>
       <c r="P93" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q93">
         <v>2.8</v>
@@ -20720,7 +20726,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20926,7 +20932,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q95">
         <v>2.17</v>
@@ -21132,7 +21138,7 @@
         <v>163</v>
       </c>
       <c r="P96" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q96">
         <v>3.35</v>
@@ -21338,7 +21344,7 @@
         <v>103</v>
       </c>
       <c r="P97" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q97">
         <v>1.81</v>
@@ -21544,7 +21550,7 @@
         <v>164</v>
       </c>
       <c r="P98" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q98">
         <v>2.44</v>
@@ -21622,7 +21628,7 @@
         <v>1</v>
       </c>
       <c r="AP98">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
         <v>1.07</v>
@@ -21750,7 +21756,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q99">
         <v>2.96</v>
@@ -22861,7 +22867,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ104">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR104">
         <v>1.63</v>
@@ -22986,7 +22992,7 @@
         <v>103</v>
       </c>
       <c r="P105" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q105">
         <v>3.02</v>
@@ -23192,7 +23198,7 @@
         <v>170</v>
       </c>
       <c r="P106" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q106">
         <v>2.43</v>
@@ -23398,7 +23404,7 @@
         <v>171</v>
       </c>
       <c r="P107" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q107">
         <v>3.5</v>
@@ -23604,7 +23610,7 @@
         <v>172</v>
       </c>
       <c r="P108" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q108">
         <v>2.56</v>
@@ -24222,7 +24228,7 @@
         <v>175</v>
       </c>
       <c r="P111" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q111">
         <v>2.69</v>
@@ -24506,7 +24512,7 @@
         <v>0.57</v>
       </c>
       <c r="AP112">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -24715,7 +24721,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ113">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR113">
         <v>1.53</v>
@@ -25046,7 +25052,7 @@
         <v>177</v>
       </c>
       <c r="P115" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q115">
         <v>4.5</v>
@@ -25458,7 +25464,7 @@
         <v>103</v>
       </c>
       <c r="P117" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q117">
         <v>2.85</v>
@@ -25664,7 +25670,7 @@
         <v>103</v>
       </c>
       <c r="P118" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -26076,7 +26082,7 @@
         <v>180</v>
       </c>
       <c r="P120" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q120">
         <v>2.46</v>
@@ -26282,7 +26288,7 @@
         <v>181</v>
       </c>
       <c r="P121" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26488,7 +26494,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q122">
         <v>2.51</v>
@@ -26694,7 +26700,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -27724,7 +27730,7 @@
         <v>186</v>
       </c>
       <c r="P128" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -27805,7 +27811,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ128">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR128">
         <v>1.53</v>
@@ -28136,7 +28142,7 @@
         <v>103</v>
       </c>
       <c r="P130" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q130">
         <v>2.88</v>
@@ -28342,7 +28348,7 @@
         <v>103</v>
       </c>
       <c r="P131" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q131">
         <v>3.75</v>
@@ -28548,7 +28554,7 @@
         <v>103</v>
       </c>
       <c r="P132" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q132">
         <v>3.04</v>
@@ -28754,7 +28760,7 @@
         <v>103</v>
       </c>
       <c r="P133" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q133">
         <v>2.69</v>
@@ -29244,7 +29250,7 @@
         <v>1.25</v>
       </c>
       <c r="AP135">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ135">
         <v>1.27</v>
@@ -30196,7 +30202,7 @@
         <v>192</v>
       </c>
       <c r="P140" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30608,7 +30614,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -31020,7 +31026,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q144">
         <v>2.02</v>
@@ -31226,7 +31232,7 @@
         <v>103</v>
       </c>
       <c r="P145" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q145">
         <v>3.44</v>
@@ -31432,7 +31438,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q146">
         <v>3.75</v>
@@ -32050,7 +32056,7 @@
         <v>199</v>
       </c>
       <c r="P149" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q149">
         <v>3.4</v>
@@ -32256,7 +32262,7 @@
         <v>200</v>
       </c>
       <c r="P150" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q150">
         <v>2.48</v>
@@ -32337,7 +32343,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ150">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR150">
         <v>1.8</v>
@@ -32462,7 +32468,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q151">
         <v>1.8</v>
@@ -32540,7 +32546,7 @@
         <v>0.22</v>
       </c>
       <c r="AP151">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ151">
         <v>0.87</v>
@@ -33080,7 +33086,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q154">
         <v>1.91</v>
@@ -33286,7 +33292,7 @@
         <v>103</v>
       </c>
       <c r="P155" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33492,7 +33498,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -33698,7 +33704,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q157">
         <v>2.32</v>
@@ -34110,7 +34116,7 @@
         <v>167</v>
       </c>
       <c r="P159" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q159">
         <v>3.06</v>
@@ -34316,7 +34322,7 @@
         <v>207</v>
       </c>
       <c r="P160" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q160">
         <v>2</v>
@@ -34728,7 +34734,7 @@
         <v>103</v>
       </c>
       <c r="P162" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q162">
         <v>6.3</v>
@@ -35424,7 +35430,7 @@
         <v>1.11</v>
       </c>
       <c r="AP165">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ165">
         <v>1.53</v>
@@ -35552,7 +35558,7 @@
         <v>210</v>
       </c>
       <c r="P166" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q166">
         <v>2.05</v>
@@ -35758,7 +35764,7 @@
         <v>211</v>
       </c>
       <c r="P167" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q167">
         <v>3.4</v>
@@ -35839,7 +35845,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ167">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR167">
         <v>1.54</v>
@@ -35964,7 +35970,7 @@
         <v>212</v>
       </c>
       <c r="P168" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q168">
         <v>3.92</v>
@@ -36170,7 +36176,7 @@
         <v>213</v>
       </c>
       <c r="P169" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q169">
         <v>2.63</v>
@@ -36582,7 +36588,7 @@
         <v>103</v>
       </c>
       <c r="P171" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q171">
         <v>2.63</v>
@@ -36788,7 +36794,7 @@
         <v>122</v>
       </c>
       <c r="P172" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q172">
         <v>2.1</v>
@@ -38024,7 +38030,7 @@
         <v>207</v>
       </c>
       <c r="P178" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q178">
         <v>2.3</v>
@@ -38436,7 +38442,7 @@
         <v>217</v>
       </c>
       <c r="P180" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q180">
         <v>2.1</v>
@@ -39466,7 +39472,7 @@
         <v>219</v>
       </c>
       <c r="P185" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q185">
         <v>1.73</v>
@@ -39672,7 +39678,7 @@
         <v>220</v>
       </c>
       <c r="P186" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q186">
         <v>2.5</v>
@@ -39878,7 +39884,7 @@
         <v>190</v>
       </c>
       <c r="P187" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q187">
         <v>2.94</v>
@@ -40084,7 +40090,7 @@
         <v>191</v>
       </c>
       <c r="P188" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -40165,7 +40171,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ188">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR188">
         <v>1.48</v>
@@ -40290,7 +40296,7 @@
         <v>221</v>
       </c>
       <c r="P189" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q189">
         <v>3.68</v>
@@ -40908,7 +40914,7 @@
         <v>224</v>
       </c>
       <c r="P192" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q192">
         <v>2.9</v>
@@ -41732,7 +41738,7 @@
         <v>227</v>
       </c>
       <c r="P196" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q196">
         <v>4.3</v>
@@ -41938,7 +41944,7 @@
         <v>101</v>
       </c>
       <c r="P197" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q197">
         <v>3.1</v>
@@ -42144,7 +42150,7 @@
         <v>103</v>
       </c>
       <c r="P198" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q198">
         <v>3.69</v>
@@ -42556,7 +42562,7 @@
         <v>221</v>
       </c>
       <c r="P200" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q200">
         <v>1.98</v>
@@ -42634,7 +42640,7 @@
         <v>1.58</v>
       </c>
       <c r="AP200">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ200">
         <v>1.47</v>
@@ -42968,7 +42974,7 @@
         <v>228</v>
       </c>
       <c r="P202" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q202">
         <v>2.12</v>
@@ -43046,7 +43052,7 @@
         <v>1.92</v>
       </c>
       <c r="AP202">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ202">
         <v>1.53</v>
@@ -43174,7 +43180,7 @@
         <v>229</v>
       </c>
       <c r="P203" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q203">
         <v>1.55</v>
@@ -43380,7 +43386,7 @@
         <v>230</v>
       </c>
       <c r="P204" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q204">
         <v>2.79</v>
@@ -44410,7 +44416,7 @@
         <v>103</v>
       </c>
       <c r="P209" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q209">
         <v>2.64</v>
@@ -44491,7 +44497,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ209">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR209">
         <v>1.96</v>
@@ -45440,7 +45446,7 @@
         <v>177</v>
       </c>
       <c r="P214" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q214">
         <v>2.63</v>
@@ -45646,7 +45652,7 @@
         <v>235</v>
       </c>
       <c r="P215" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -46058,7 +46064,7 @@
         <v>125</v>
       </c>
       <c r="P217" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q217">
         <v>3.1</v>
@@ -46264,7 +46270,7 @@
         <v>237</v>
       </c>
       <c r="P218" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q218">
         <v>3.1</v>
@@ -46470,7 +46476,7 @@
         <v>238</v>
       </c>
       <c r="P219" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q219">
         <v>2.25</v>
@@ -46676,7 +46682,7 @@
         <v>239</v>
       </c>
       <c r="P220" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q220">
         <v>3.1</v>
@@ -47169,7 +47175,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ222">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR222">
         <v>1.41</v>
@@ -47500,7 +47506,7 @@
         <v>103</v>
       </c>
       <c r="P224" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q224">
         <v>2.5</v>
@@ -47784,7 +47790,7 @@
         <v>1.46</v>
       </c>
       <c r="AP225">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ225">
         <v>1.47</v>
@@ -47912,7 +47918,7 @@
         <v>242</v>
       </c>
       <c r="P226" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q226">
         <v>2.4</v>
@@ -48118,7 +48124,7 @@
         <v>243</v>
       </c>
       <c r="P227" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q227">
         <v>3.25</v>
@@ -48324,7 +48330,7 @@
         <v>244</v>
       </c>
       <c r="P228" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q228">
         <v>2.38</v>
@@ -48530,7 +48536,7 @@
         <v>103</v>
       </c>
       <c r="P229" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q229">
         <v>2.4</v>
@@ -48942,7 +48948,7 @@
         <v>246</v>
       </c>
       <c r="P231" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q231">
         <v>2.25</v>
@@ -49148,7 +49154,7 @@
         <v>247</v>
       </c>
       <c r="P232" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q232">
         <v>3.7</v>
@@ -49354,7 +49360,7 @@
         <v>248</v>
       </c>
       <c r="P233" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q233">
         <v>1.67</v>
@@ -49560,7 +49566,7 @@
         <v>249</v>
       </c>
       <c r="P234" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q234">
         <v>3.52</v>
@@ -49641,7 +49647,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ234">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR234">
         <v>1.8</v>
@@ -49972,7 +49978,7 @@
         <v>251</v>
       </c>
       <c r="P236" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q236">
         <v>2.16</v>
@@ -50178,7 +50184,7 @@
         <v>252</v>
       </c>
       <c r="P237" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q237">
         <v>2.23</v>
@@ -50384,7 +50390,7 @@
         <v>103</v>
       </c>
       <c r="P238" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q238">
         <v>4.33</v>
@@ -50590,7 +50596,7 @@
         <v>253</v>
       </c>
       <c r="P239" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q239">
         <v>3.32</v>
@@ -50796,7 +50802,7 @@
         <v>181</v>
       </c>
       <c r="P240" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q240">
         <v>2.48</v>
@@ -50874,7 +50880,7 @@
         <v>1.07</v>
       </c>
       <c r="AP240">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ240">
         <v>1.2</v>
@@ -51002,7 +51008,7 @@
         <v>103</v>
       </c>
       <c r="P241" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q241">
         <v>2.5</v>
@@ -51159,6 +51165,212 @@
       </c>
       <c r="BP241">
         <v>1.67</v>
+      </c>
+    </row>
+    <row r="242" spans="1:68">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>7743639</v>
+      </c>
+      <c r="C242" t="s">
+        <v>68</v>
+      </c>
+      <c r="D242" t="s">
+        <v>69</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45613.41666666666</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242" t="s">
+        <v>84</v>
+      </c>
+      <c r="H242" t="s">
+        <v>71</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>1</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="M242">
+        <v>2</v>
+      </c>
+      <c r="N242">
+        <v>3</v>
+      </c>
+      <c r="O242" t="s">
+        <v>254</v>
+      </c>
+      <c r="P242" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q242">
+        <v>2.6</v>
+      </c>
+      <c r="R242">
+        <v>2.3</v>
+      </c>
+      <c r="S242">
+        <v>3.75</v>
+      </c>
+      <c r="T242">
+        <v>1.3</v>
+      </c>
+      <c r="U242">
+        <v>3.4</v>
+      </c>
+      <c r="V242">
+        <v>2.5</v>
+      </c>
+      <c r="W242">
+        <v>1.5</v>
+      </c>
+      <c r="X242">
+        <v>6</v>
+      </c>
+      <c r="Y242">
+        <v>1.13</v>
+      </c>
+      <c r="Z242">
+        <v>2.15</v>
+      </c>
+      <c r="AA242">
+        <v>3.7</v>
+      </c>
+      <c r="AB242">
+        <v>3</v>
+      </c>
+      <c r="AC242">
+        <v>1</v>
+      </c>
+      <c r="AD242">
+        <v>12</v>
+      </c>
+      <c r="AE242">
+        <v>1.17</v>
+      </c>
+      <c r="AF242">
+        <v>3.84</v>
+      </c>
+      <c r="AG242">
+        <v>1.63</v>
+      </c>
+      <c r="AH242">
+        <v>2.2</v>
+      </c>
+      <c r="AI242">
+        <v>1.57</v>
+      </c>
+      <c r="AJ242">
+        <v>2.25</v>
+      </c>
+      <c r="AK242">
+        <v>1.33</v>
+      </c>
+      <c r="AL242">
+        <v>1.22</v>
+      </c>
+      <c r="AM242">
+        <v>1.78</v>
+      </c>
+      <c r="AN242">
+        <v>1.53</v>
+      </c>
+      <c r="AO242">
+        <v>1.47</v>
+      </c>
+      <c r="AP242">
+        <v>1.48</v>
+      </c>
+      <c r="AQ242">
+        <v>1.52</v>
+      </c>
+      <c r="AR242">
+        <v>1.76</v>
+      </c>
+      <c r="AS242">
+        <v>1.69</v>
+      </c>
+      <c r="AT242">
+        <v>3.45</v>
+      </c>
+      <c r="AU242">
+        <v>6</v>
+      </c>
+      <c r="AV242">
+        <v>8</v>
+      </c>
+      <c r="AW242">
+        <v>3</v>
+      </c>
+      <c r="AX242">
+        <v>8</v>
+      </c>
+      <c r="AY242">
+        <v>11</v>
+      </c>
+      <c r="AZ242">
+        <v>28</v>
+      </c>
+      <c r="BA242">
+        <v>13</v>
+      </c>
+      <c r="BB242">
+        <v>10</v>
+      </c>
+      <c r="BC242">
+        <v>23</v>
+      </c>
+      <c r="BD242">
+        <v>1.62</v>
+      </c>
+      <c r="BE242">
+        <v>6.4</v>
+      </c>
+      <c r="BF242">
+        <v>2.82</v>
+      </c>
+      <c r="BG242">
+        <v>1.08</v>
+      </c>
+      <c r="BH242">
+        <v>5.15</v>
+      </c>
+      <c r="BI242">
+        <v>1.22</v>
+      </c>
+      <c r="BJ242">
+        <v>3.8</v>
+      </c>
+      <c r="BK242">
+        <v>1.4</v>
+      </c>
+      <c r="BL242">
+        <v>2.7</v>
+      </c>
+      <c r="BM242">
+        <v>1.7</v>
+      </c>
+      <c r="BN242">
+        <v>2</v>
+      </c>
+      <c r="BO242">
+        <v>2.18</v>
+      </c>
+      <c r="BP242">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -51181,7 +51181,7 @@
         <v>69</v>
       </c>
       <c r="E242" s="2">
-        <v>45613.41666666666</v>
+        <v>45612.875</v>
       </c>
       <c r="F242">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -51307,22 +51307,22 @@
         <v>3.45</v>
       </c>
       <c r="AU242">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV242">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AW242">
         <v>3</v>
       </c>
       <c r="AX242">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AY242">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ242">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="BA242">
         <v>13</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -51516,22 +51516,22 @@
         <v>3.36</v>
       </c>
       <c r="AU243">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV243">
         <v>3</v>
       </c>
       <c r="AW243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX243">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY243">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AZ243">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA243">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -51390,7 +51390,7 @@
         <v>69</v>
       </c>
       <c r="E243" s="2">
-        <v>45619.41666666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F243">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="383">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -784,6 +784,9 @@
     <t>['17']</t>
   </si>
   <si>
+    <t>['7', '46', '56']</t>
+  </si>
+  <si>
     <t>['37']</t>
   </si>
   <si>
@@ -1158,6 +1161,9 @@
   <si>
     <t>['7', '22']</t>
   </si>
+  <si>
+    <t>['52', '65']</t>
+  </si>
 </sst>
 </file>
 
@@ -1518,7 +1524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP243"/>
+  <dimension ref="A1:BP244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2189,7 +2195,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2601,7 +2607,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q6">
         <v>2.35</v>
@@ -2807,7 +2813,7 @@
         <v>91</v>
       </c>
       <c r="P7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q7">
         <v>2.66</v>
@@ -3013,7 +3019,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -3297,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ9">
         <v>1.47</v>
@@ -3425,7 +3431,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3631,7 +3637,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3837,7 +3843,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4455,7 +4461,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q15">
         <v>2.05</v>
@@ -4742,7 +4748,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ16">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4867,7 +4873,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q17">
         <v>2.15</v>
@@ -5073,7 +5079,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q18">
         <v>2.15</v>
@@ -5563,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ20">
         <v>1.33</v>
@@ -6309,7 +6315,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q24">
         <v>2.05</v>
@@ -6515,7 +6521,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6596,7 +6602,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ25">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR25">
         <v>1.67</v>
@@ -7545,7 +7551,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q30">
         <v>2.25</v>
@@ -7751,7 +7757,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q31">
         <v>4</v>
@@ -7957,7 +7963,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q32">
         <v>3.05</v>
@@ -8163,7 +8169,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q33">
         <v>2.26</v>
@@ -8369,7 +8375,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q34">
         <v>3.46</v>
@@ -8781,7 +8787,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q36">
         <v>2.72</v>
@@ -8859,7 +8865,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ36">
         <v>1.53</v>
@@ -9193,7 +9199,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q38">
         <v>4.55</v>
@@ -9399,7 +9405,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q39">
         <v>2.78</v>
@@ -9892,7 +9898,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ41">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR41">
         <v>1.14</v>
@@ -10635,7 +10641,7 @@
         <v>123</v>
       </c>
       <c r="P45" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q45">
         <v>3.3</v>
@@ -10841,7 +10847,7 @@
         <v>94</v>
       </c>
       <c r="P46" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -11047,7 +11053,7 @@
         <v>124</v>
       </c>
       <c r="P47" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q47">
         <v>3.11</v>
@@ -11459,7 +11465,7 @@
         <v>126</v>
       </c>
       <c r="P49" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q49">
         <v>2.05</v>
@@ -11871,7 +11877,7 @@
         <v>103</v>
       </c>
       <c r="P51" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q51">
         <v>3.89</v>
@@ -12489,7 +12495,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q54">
         <v>3.4</v>
@@ -12567,7 +12573,7 @@
         <v>1.67</v>
       </c>
       <c r="AP54">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ54">
         <v>1.27</v>
@@ -12695,7 +12701,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q55">
         <v>2.61</v>
@@ -13107,7 +13113,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q57">
         <v>2.39</v>
@@ -13519,7 +13525,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q59">
         <v>2.84</v>
@@ -13725,7 +13731,7 @@
         <v>103</v>
       </c>
       <c r="P60" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13931,7 +13937,7 @@
         <v>103</v>
       </c>
       <c r="P61" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q61">
         <v>2.32</v>
@@ -14012,7 +14018,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ61">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR61">
         <v>2.26</v>
@@ -14137,7 +14143,7 @@
         <v>135</v>
       </c>
       <c r="P62" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14343,7 +14349,7 @@
         <v>103</v>
       </c>
       <c r="P63" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q63">
         <v>2.57</v>
@@ -14549,7 +14555,7 @@
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14627,7 +14633,7 @@
         <v>0.25</v>
       </c>
       <c r="AP64">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ64">
         <v>0.87</v>
@@ -14961,7 +14967,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q66">
         <v>1.85</v>
@@ -15373,7 +15379,7 @@
         <v>139</v>
       </c>
       <c r="P68" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q68">
         <v>2.5</v>
@@ -15785,7 +15791,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -16197,7 +16203,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q72">
         <v>2.24</v>
@@ -16815,7 +16821,7 @@
         <v>128</v>
       </c>
       <c r="P75" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q75">
         <v>3</v>
@@ -17021,7 +17027,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q76">
         <v>2.38</v>
@@ -17227,7 +17233,7 @@
         <v>103</v>
       </c>
       <c r="P77" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q77">
         <v>3.66</v>
@@ -17308,7 +17314,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ77">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR77">
         <v>1.41</v>
@@ -17433,7 +17439,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q78">
         <v>2.4</v>
@@ -17639,7 +17645,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17845,7 +17851,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q80">
         <v>2.2</v>
@@ -18051,7 +18057,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q81">
         <v>2.55</v>
@@ -18463,7 +18469,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q83">
         <v>2.31</v>
@@ -18669,7 +18675,7 @@
         <v>152</v>
       </c>
       <c r="P84" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q84">
         <v>2.7</v>
@@ -18875,7 +18881,7 @@
         <v>153</v>
       </c>
       <c r="P85" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q85">
         <v>2.27</v>
@@ -19159,7 +19165,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ86">
         <v>1.53</v>
@@ -19287,7 +19293,7 @@
         <v>155</v>
       </c>
       <c r="P87" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19699,7 +19705,7 @@
         <v>156</v>
       </c>
       <c r="P89" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -20111,7 +20117,7 @@
         <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20192,7 +20198,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ91">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR91">
         <v>1.3</v>
@@ -20317,7 +20323,7 @@
         <v>159</v>
       </c>
       <c r="P92" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q92">
         <v>2.6</v>
@@ -20523,7 +20529,7 @@
         <v>160</v>
       </c>
       <c r="P93" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q93">
         <v>2.8</v>
@@ -20729,7 +20735,7 @@
         <v>161</v>
       </c>
       <c r="P94" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q94">
         <v>2.1</v>
@@ -20935,7 +20941,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q95">
         <v>2.17</v>
@@ -21141,7 +21147,7 @@
         <v>163</v>
       </c>
       <c r="P96" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q96">
         <v>3.35</v>
@@ -21347,7 +21353,7 @@
         <v>103</v>
       </c>
       <c r="P97" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q97">
         <v>1.81</v>
@@ -21553,7 +21559,7 @@
         <v>164</v>
       </c>
       <c r="P98" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q98">
         <v>2.44</v>
@@ -21759,7 +21765,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q99">
         <v>2.96</v>
@@ -22249,7 +22255,7 @@
         <v>0.6</v>
       </c>
       <c r="AP101">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ101">
         <v>1.47</v>
@@ -22870,7 +22876,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ104">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR104">
         <v>1.63</v>
@@ -22995,7 +23001,7 @@
         <v>103</v>
       </c>
       <c r="P105" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q105">
         <v>3.02</v>
@@ -23201,7 +23207,7 @@
         <v>170</v>
       </c>
       <c r="P106" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q106">
         <v>2.43</v>
@@ -23407,7 +23413,7 @@
         <v>171</v>
       </c>
       <c r="P107" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q107">
         <v>3.5</v>
@@ -23613,7 +23619,7 @@
         <v>172</v>
       </c>
       <c r="P108" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q108">
         <v>2.56</v>
@@ -24231,7 +24237,7 @@
         <v>175</v>
       </c>
       <c r="P111" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q111">
         <v>2.69</v>
@@ -24721,10 +24727,10 @@
         <v>1.57</v>
       </c>
       <c r="AP113">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ113">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR113">
         <v>1.53</v>
@@ -25055,7 +25061,7 @@
         <v>177</v>
       </c>
       <c r="P115" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q115">
         <v>4.5</v>
@@ -25467,7 +25473,7 @@
         <v>103</v>
       </c>
       <c r="P117" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q117">
         <v>2.85</v>
@@ -25673,7 +25679,7 @@
         <v>103</v>
       </c>
       <c r="P118" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q118">
         <v>3.2</v>
@@ -26085,7 +26091,7 @@
         <v>180</v>
       </c>
       <c r="P120" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q120">
         <v>2.46</v>
@@ -26291,7 +26297,7 @@
         <v>181</v>
       </c>
       <c r="P121" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26497,7 +26503,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q122">
         <v>2.51</v>
@@ -26703,7 +26709,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q123">
         <v>2.38</v>
@@ -27733,7 +27739,7 @@
         <v>103</v>
       </c>
       <c r="P128" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q128">
         <v>2.69</v>
@@ -28145,7 +28151,7 @@
         <v>103</v>
       </c>
       <c r="P130" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28223,7 +28229,7 @@
         <v>2.13</v>
       </c>
       <c r="AP130">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ130">
         <v>2.27</v>
@@ -28351,7 +28357,7 @@
         <v>103</v>
       </c>
       <c r="P131" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q131">
         <v>3.04</v>
@@ -28557,7 +28563,7 @@
         <v>103</v>
       </c>
       <c r="P132" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28763,7 +28769,7 @@
         <v>186</v>
       </c>
       <c r="P133" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28844,7 +28850,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ133">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR133">
         <v>1.53</v>
@@ -29587,7 +29593,7 @@
         <v>190</v>
       </c>
       <c r="P137" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q137">
         <v>3.6</v>
@@ -30617,7 +30623,7 @@
         <v>194</v>
       </c>
       <c r="P142" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q142">
         <v>2.2</v>
@@ -31029,7 +31035,7 @@
         <v>91</v>
       </c>
       <c r="P144" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q144">
         <v>2.02</v>
@@ -31235,7 +31241,7 @@
         <v>103</v>
       </c>
       <c r="P145" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q145">
         <v>3.44</v>
@@ -31441,7 +31447,7 @@
         <v>196</v>
       </c>
       <c r="P146" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q146">
         <v>3.75</v>
@@ -31853,7 +31859,7 @@
         <v>198</v>
       </c>
       <c r="P148" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q148">
         <v>2.48</v>
@@ -31934,7 +31940,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ148">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR148">
         <v>1.8</v>
@@ -32059,7 +32065,7 @@
         <v>199</v>
       </c>
       <c r="P149" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q149">
         <v>1.8</v>
@@ -32343,7 +32349,7 @@
         <v>1.33</v>
       </c>
       <c r="AP150">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ150">
         <v>1.07</v>
@@ -32471,7 +32477,7 @@
         <v>201</v>
       </c>
       <c r="P151" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q151">
         <v>3.4</v>
@@ -33089,7 +33095,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q154">
         <v>1.91</v>
@@ -33295,7 +33301,7 @@
         <v>103</v>
       </c>
       <c r="P155" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q155">
         <v>2.5</v>
@@ -33501,7 +33507,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -33707,7 +33713,7 @@
         <v>205</v>
       </c>
       <c r="P157" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q157">
         <v>2.32</v>
@@ -34119,7 +34125,7 @@
         <v>167</v>
       </c>
       <c r="P159" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q159">
         <v>3.06</v>
@@ -34325,7 +34331,7 @@
         <v>207</v>
       </c>
       <c r="P160" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q160">
         <v>2</v>
@@ -34737,7 +34743,7 @@
         <v>103</v>
       </c>
       <c r="P162" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q162">
         <v>6.3</v>
@@ -35021,7 +35027,7 @@
         <v>0.89</v>
       </c>
       <c r="AP163">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ163">
         <v>0.93</v>
@@ -35561,7 +35567,7 @@
         <v>210</v>
       </c>
       <c r="P166" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q166">
         <v>2.05</v>
@@ -35767,7 +35773,7 @@
         <v>211</v>
       </c>
       <c r="P167" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q167">
         <v>3.92</v>
@@ -35973,7 +35979,7 @@
         <v>212</v>
       </c>
       <c r="P168" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q168">
         <v>2.63</v>
@@ -36179,7 +36185,7 @@
         <v>213</v>
       </c>
       <c r="P169" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q169">
         <v>3.4</v>
@@ -36260,7 +36266,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ169">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR169">
         <v>1.54</v>
@@ -36591,7 +36597,7 @@
         <v>103</v>
       </c>
       <c r="P171" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q171">
         <v>2.63</v>
@@ -36797,7 +36803,7 @@
         <v>122</v>
       </c>
       <c r="P172" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q172">
         <v>2.1</v>
@@ -38033,7 +38039,7 @@
         <v>207</v>
       </c>
       <c r="P178" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q178">
         <v>2.3</v>
@@ -38239,7 +38245,7 @@
         <v>217</v>
       </c>
       <c r="P179" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q179">
         <v>2.1</v>
@@ -39475,7 +39481,7 @@
         <v>219</v>
       </c>
       <c r="P185" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q185">
         <v>1.73</v>
@@ -39681,7 +39687,7 @@
         <v>220</v>
       </c>
       <c r="P186" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q186">
         <v>2.5</v>
@@ -39887,7 +39893,7 @@
         <v>192</v>
       </c>
       <c r="P187" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q187">
         <v>2.94</v>
@@ -40093,7 +40099,7 @@
         <v>189</v>
       </c>
       <c r="P188" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -40174,7 +40180,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ188">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR188">
         <v>1.48</v>
@@ -40299,7 +40305,7 @@
         <v>221</v>
       </c>
       <c r="P189" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q189">
         <v>3.68</v>
@@ -40789,7 +40795,7 @@
         <v>0.45</v>
       </c>
       <c r="AP191">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ191">
         <v>0.4</v>
@@ -40917,7 +40923,7 @@
         <v>224</v>
       </c>
       <c r="P192" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q192">
         <v>2.9</v>
@@ -41741,7 +41747,7 @@
         <v>101</v>
       </c>
       <c r="P196" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q196">
         <v>3.1</v>
@@ -41947,7 +41953,7 @@
         <v>227</v>
       </c>
       <c r="P197" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q197">
         <v>4.3</v>
@@ -42153,7 +42159,7 @@
         <v>103</v>
       </c>
       <c r="P198" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q198">
         <v>3.69</v>
@@ -42565,7 +42571,7 @@
         <v>221</v>
       </c>
       <c r="P200" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q200">
         <v>1.98</v>
@@ -42771,7 +42777,7 @@
         <v>228</v>
       </c>
       <c r="P201" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q201">
         <v>2.79</v>
@@ -43183,7 +43189,7 @@
         <v>229</v>
       </c>
       <c r="P203" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q203">
         <v>1.55</v>
@@ -43389,7 +43395,7 @@
         <v>230</v>
       </c>
       <c r="P204" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q204">
         <v>2.12</v>
@@ -44213,7 +44219,7 @@
         <v>103</v>
       </c>
       <c r="P208" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q208">
         <v>2.64</v>
@@ -44294,7 +44300,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ208">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR208">
         <v>1.96</v>
@@ -44497,7 +44503,7 @@
         <v>0.67</v>
       </c>
       <c r="AP209">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ209">
         <v>1</v>
@@ -45449,7 +45455,7 @@
         <v>177</v>
       </c>
       <c r="P214" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q214">
         <v>2.63</v>
@@ -45655,7 +45661,7 @@
         <v>235</v>
       </c>
       <c r="P215" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q215">
         <v>2.5</v>
@@ -45939,7 +45945,7 @@
         <v>1</v>
       </c>
       <c r="AP216">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ216">
         <v>0.87</v>
@@ -46067,7 +46073,7 @@
         <v>125</v>
       </c>
       <c r="P217" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q217">
         <v>3.1</v>
@@ -46273,7 +46279,7 @@
         <v>237</v>
       </c>
       <c r="P218" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q218">
         <v>3.1</v>
@@ -46479,7 +46485,7 @@
         <v>238</v>
       </c>
       <c r="P219" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q219">
         <v>2.25</v>
@@ -46685,7 +46691,7 @@
         <v>103</v>
       </c>
       <c r="P220" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q220">
         <v>2.5</v>
@@ -47509,7 +47515,7 @@
         <v>240</v>
       </c>
       <c r="P224" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q224">
         <v>3.1</v>
@@ -47796,7 +47802,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ225">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR225">
         <v>1.41</v>
@@ -47921,7 +47927,7 @@
         <v>242</v>
       </c>
       <c r="P226" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q226">
         <v>1.67</v>
@@ -48127,7 +48133,7 @@
         <v>103</v>
       </c>
       <c r="P227" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q227">
         <v>2.4</v>
@@ -48333,7 +48339,7 @@
         <v>243</v>
       </c>
       <c r="P228" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q228">
         <v>2.4</v>
@@ -48411,7 +48417,7 @@
         <v>1.57</v>
       </c>
       <c r="AP228">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ228">
         <v>1.47</v>
@@ -48539,7 +48545,7 @@
         <v>244</v>
       </c>
       <c r="P229" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q229">
         <v>3.25</v>
@@ -48745,7 +48751,7 @@
         <v>245</v>
       </c>
       <c r="P230" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q230">
         <v>3.7</v>
@@ -49157,7 +49163,7 @@
         <v>247</v>
       </c>
       <c r="P232" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q232">
         <v>2.25</v>
@@ -49363,7 +49369,7 @@
         <v>248</v>
       </c>
       <c r="P233" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q233">
         <v>2.38</v>
@@ -49569,7 +49575,7 @@
         <v>181</v>
       </c>
       <c r="P234" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q234">
         <v>2.48</v>
@@ -49775,7 +49781,7 @@
         <v>249</v>
       </c>
       <c r="P235" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q235">
         <v>3.32</v>
@@ -49981,7 +49987,7 @@
         <v>103</v>
       </c>
       <c r="P236" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q236">
         <v>4.33</v>
@@ -50187,7 +50193,7 @@
         <v>103</v>
       </c>
       <c r="P237" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q237">
         <v>2.5</v>
@@ -50393,7 +50399,7 @@
         <v>250</v>
       </c>
       <c r="P238" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q238">
         <v>2.16</v>
@@ -50599,7 +50605,7 @@
         <v>251</v>
       </c>
       <c r="P239" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q239">
         <v>3.52</v>
@@ -50680,7 +50686,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ239">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AR239">
         <v>1.8</v>
@@ -51011,7 +51017,7 @@
         <v>253</v>
       </c>
       <c r="P241" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q241">
         <v>2.23</v>
@@ -51217,7 +51223,7 @@
         <v>254</v>
       </c>
       <c r="P242" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q242">
         <v>2.6</v>
@@ -51298,7 +51304,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ242">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AR242">
         <v>1.76</v>
@@ -51423,7 +51429,7 @@
         <v>255</v>
       </c>
       <c r="P243" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q243">
         <v>3.1</v>
@@ -51504,7 +51510,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ243">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AR243">
         <v>1.67</v>
@@ -51580,6 +51586,212 @@
       </c>
       <c r="BP243">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:68">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>7754128</v>
+      </c>
+      <c r="C244" t="s">
+        <v>68</v>
+      </c>
+      <c r="D244" t="s">
+        <v>69</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45627.41666666666</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244" t="s">
+        <v>77</v>
+      </c>
+      <c r="H244" t="s">
+        <v>71</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
+      <c r="L244">
+        <v>3</v>
+      </c>
+      <c r="M244">
+        <v>2</v>
+      </c>
+      <c r="N244">
+        <v>5</v>
+      </c>
+      <c r="O244" t="s">
+        <v>256</v>
+      </c>
+      <c r="P244" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q244">
+        <v>3.1</v>
+      </c>
+      <c r="R244">
+        <v>2.2</v>
+      </c>
+      <c r="S244">
+        <v>3.25</v>
+      </c>
+      <c r="T244">
+        <v>1.36</v>
+      </c>
+      <c r="U244">
+        <v>3</v>
+      </c>
+      <c r="V244">
+        <v>2.63</v>
+      </c>
+      <c r="W244">
+        <v>1.44</v>
+      </c>
+      <c r="X244">
+        <v>7</v>
+      </c>
+      <c r="Y244">
+        <v>1.1</v>
+      </c>
+      <c r="Z244">
+        <v>2.45</v>
+      </c>
+      <c r="AA244">
+        <v>3.25</v>
+      </c>
+      <c r="AB244">
+        <v>2.63</v>
+      </c>
+      <c r="AC244">
+        <v>1.04</v>
+      </c>
+      <c r="AD244">
+        <v>12</v>
+      </c>
+      <c r="AE244">
+        <v>1.28</v>
+      </c>
+      <c r="AF244">
+        <v>3.75</v>
+      </c>
+      <c r="AG244">
+        <v>1.8</v>
+      </c>
+      <c r="AH244">
+        <v>2</v>
+      </c>
+      <c r="AI244">
+        <v>1.62</v>
+      </c>
+      <c r="AJ244">
+        <v>2.2</v>
+      </c>
+      <c r="AK244">
+        <v>1.45</v>
+      </c>
+      <c r="AL244">
+        <v>1.25</v>
+      </c>
+      <c r="AM244">
+        <v>1.55</v>
+      </c>
+      <c r="AN244">
+        <v>1.77</v>
+      </c>
+      <c r="AO244">
+        <v>1.56</v>
+      </c>
+      <c r="AP244">
+        <v>1.81</v>
+      </c>
+      <c r="AQ244">
+        <v>1.52</v>
+      </c>
+      <c r="AR244">
+        <v>1.64</v>
+      </c>
+      <c r="AS244">
+        <v>1.69</v>
+      </c>
+      <c r="AT244">
+        <v>3.33</v>
+      </c>
+      <c r="AU244">
+        <v>3</v>
+      </c>
+      <c r="AV244">
+        <v>3</v>
+      </c>
+      <c r="AW244">
+        <v>0</v>
+      </c>
+      <c r="AX244">
+        <v>0</v>
+      </c>
+      <c r="AY244">
+        <v>3</v>
+      </c>
+      <c r="AZ244">
+        <v>3</v>
+      </c>
+      <c r="BA244">
+        <v>4</v>
+      </c>
+      <c r="BB244">
+        <v>3</v>
+      </c>
+      <c r="BC244">
+        <v>7</v>
+      </c>
+      <c r="BD244">
+        <v>1.75</v>
+      </c>
+      <c r="BE244">
+        <v>6.1</v>
+      </c>
+      <c r="BF244">
+        <v>2.5</v>
+      </c>
+      <c r="BG244">
+        <v>1.18</v>
+      </c>
+      <c r="BH244">
+        <v>4.6</v>
+      </c>
+      <c r="BI244">
+        <v>1.34</v>
+      </c>
+      <c r="BJ244">
+        <v>3.1</v>
+      </c>
+      <c r="BK244">
+        <v>1.6</v>
+      </c>
+      <c r="BL244">
+        <v>2.25</v>
+      </c>
+      <c r="BM244">
+        <v>2</v>
+      </c>
+      <c r="BN244">
+        <v>1.8</v>
+      </c>
+      <c r="BO244">
+        <v>2.65</v>
+      </c>
+      <c r="BP244">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Norway First Division_2024.xlsx
@@ -51728,22 +51728,22 @@
         <v>3.33</v>
       </c>
       <c r="AU244">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV244">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AW244">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AX244">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AY244">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AZ244">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="BA244">
         <v>4</v>
